--- a/natmiOut/OldD4/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Fzd4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H2">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I2">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J2">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.9281581961482</v>
+        <v>29.22839533333334</v>
       </c>
       <c r="N2">
-        <v>28.9281581961482</v>
+        <v>87.685186</v>
       </c>
       <c r="O2">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="P2">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
       <c r="Q2">
-        <v>425.4467662244201</v>
+        <v>4.864111608985778</v>
       </c>
       <c r="R2">
-        <v>425.4467662244201</v>
+        <v>43.777004480872</v>
       </c>
       <c r="S2">
-        <v>0.4188695963057827</v>
+        <v>0.004420212731262169</v>
       </c>
       <c r="T2">
-        <v>0.4188695963057827</v>
+        <v>0.005123162782142665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H3">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I3">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J3">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.4396887939057</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>14.4396887939057</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="P3">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
       <c r="Q3">
-        <v>212.3646746190763</v>
+        <v>2.536925628628445</v>
       </c>
       <c r="R3">
-        <v>212.3646746190763</v>
+        <v>22.832330657656</v>
       </c>
       <c r="S3">
-        <v>0.2090816350931652</v>
+        <v>0.002305405768488714</v>
       </c>
       <c r="T3">
-        <v>0.2090816350931652</v>
+        <v>0.00267203633601721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.7070118788644</v>
+        <v>0.1664173333333333</v>
       </c>
       <c r="H4">
-        <v>14.7070118788644</v>
+        <v>0.499252</v>
       </c>
       <c r="I4">
-        <v>0.9254177044729294</v>
+        <v>0.009928329481286188</v>
       </c>
       <c r="J4">
-        <v>0.9254177044729294</v>
+        <v>0.01026989293949489</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5437617507394</v>
+        <v>21.177737</v>
       </c>
       <c r="N4">
-        <v>20.5437617507394</v>
+        <v>42.355474</v>
       </c>
       <c r="O4">
-        <v>0.3214402227623288</v>
+        <v>0.3225830677328006</v>
       </c>
       <c r="P4">
-        <v>0.3214402227623288</v>
+        <v>0.2409658830831714</v>
       </c>
       <c r="Q4">
-        <v>302.1373481046845</v>
+        <v>3.524342517574667</v>
       </c>
       <c r="R4">
-        <v>302.1373481046845</v>
+        <v>21.146055105448</v>
       </c>
       <c r="S4">
-        <v>0.2974664730739814</v>
+        <v>0.003202710981535303</v>
       </c>
       <c r="T4">
-        <v>0.2974664730739814</v>
+        <v>0.002474693821335012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H5">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I5">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J5">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.9281581961482</v>
+        <v>29.22839533333334</v>
       </c>
       <c r="N5">
-        <v>28.9281581961482</v>
+        <v>87.685186</v>
       </c>
       <c r="O5">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="P5">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
       <c r="Q5">
-        <v>34.28808017851624</v>
+        <v>436.1757722424649</v>
       </c>
       <c r="R5">
-        <v>34.28808017851624</v>
+        <v>3925.581950182183</v>
       </c>
       <c r="S5">
-        <v>0.03375800556655174</v>
+        <v>0.3963703665788744</v>
       </c>
       <c r="T5">
-        <v>0.03375800556655174</v>
+        <v>0.459405470609847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.18528390041374</v>
+        <v>14.92301466666667</v>
       </c>
       <c r="H6">
-        <v>1.18528390041374</v>
+        <v>44.76904399999999</v>
       </c>
       <c r="I6">
-        <v>0.07458229552707067</v>
+        <v>0.8902955208876449</v>
       </c>
       <c r="J6">
-        <v>0.07458229552707067</v>
+        <v>0.920924280490686</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4396887939057</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N6">
-        <v>14.4396887939057</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O6">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="P6">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
       <c r="Q6">
-        <v>17.11513065440112</v>
+        <v>227.4917979152702</v>
       </c>
       <c r="R6">
-        <v>17.11513065440112</v>
+        <v>2047.426181237432</v>
       </c>
       <c r="S6">
-        <v>0.0168505402721715</v>
+        <v>0.2067308939920622</v>
       </c>
       <c r="T6">
-        <v>0.0168505402721715</v>
+        <v>0.2396074773796664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.92301466666667</v>
+      </c>
+      <c r="H7">
+        <v>44.76904399999999</v>
+      </c>
+      <c r="I7">
+        <v>0.8902955208876449</v>
+      </c>
+      <c r="J7">
+        <v>0.920924280490686</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>21.177737</v>
+      </c>
+      <c r="N7">
+        <v>42.355474</v>
+      </c>
+      <c r="O7">
+        <v>0.3225830677328006</v>
+      </c>
+      <c r="P7">
+        <v>0.2409658830831714</v>
+      </c>
+      <c r="Q7">
+        <v>316.0356798578093</v>
+      </c>
+      <c r="R7">
+        <v>1896.214079146856</v>
+      </c>
+      <c r="S7">
+        <v>0.2871942603167081</v>
+      </c>
+      <c r="T7">
+        <v>0.2219113325011723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.6724345</v>
+      </c>
+      <c r="H8">
+        <v>3.344869</v>
+      </c>
+      <c r="I8">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J8">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>29.22839533333334</v>
+      </c>
+      <c r="N8">
+        <v>87.685186</v>
+      </c>
+      <c r="O8">
+        <v>0.4452121315669252</v>
+      </c>
+      <c r="P8">
+        <v>0.4988525987881078</v>
+      </c>
+      <c r="Q8">
+        <v>48.88257673510567</v>
+      </c>
+      <c r="R8">
+        <v>293.295460410634</v>
+      </c>
+      <c r="S8">
+        <v>0.04442155225678864</v>
+      </c>
+      <c r="T8">
+        <v>0.0343239653961181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.18528390041374</v>
-      </c>
-      <c r="H7">
-        <v>1.18528390041374</v>
-      </c>
-      <c r="I7">
-        <v>0.07458229552707067</v>
-      </c>
-      <c r="J7">
-        <v>0.07458229552707067</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>20.5437617507394</v>
-      </c>
-      <c r="N7">
-        <v>20.5437617507394</v>
-      </c>
-      <c r="O7">
-        <v>0.3214402227623288</v>
-      </c>
-      <c r="P7">
-        <v>0.3214402227623288</v>
-      </c>
-      <c r="Q7">
-        <v>24.350190057087</v>
-      </c>
-      <c r="R7">
-        <v>24.350190057087</v>
-      </c>
-      <c r="S7">
-        <v>0.02397374968834744</v>
-      </c>
-      <c r="T7">
-        <v>0.02397374968834744</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.6724345</v>
+      </c>
+      <c r="H9">
+        <v>3.344869</v>
+      </c>
+      <c r="I9">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J9">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.24435933333334</v>
+      </c>
+      <c r="N9">
+        <v>45.73307800000001</v>
+      </c>
+      <c r="O9">
+        <v>0.232204800700274</v>
+      </c>
+      <c r="P9">
+        <v>0.2601815181287206</v>
+      </c>
+      <c r="Q9">
+        <v>25.49519247946367</v>
+      </c>
+      <c r="R9">
+        <v>152.971154876782</v>
+      </c>
+      <c r="S9">
+        <v>0.02316850093972305</v>
+      </c>
+      <c r="T9">
+        <v>0.017902004413037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.6724345</v>
+      </c>
+      <c r="H10">
+        <v>3.344869</v>
+      </c>
+      <c r="I10">
+        <v>0.09977614963106883</v>
+      </c>
+      <c r="J10">
+        <v>0.06880582656981911</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.177737</v>
+      </c>
+      <c r="N10">
+        <v>42.355474</v>
+      </c>
+      <c r="O10">
+        <v>0.3225830677328006</v>
+      </c>
+      <c r="P10">
+        <v>0.2409658830831714</v>
+      </c>
+      <c r="Q10">
+        <v>35.4183779907265</v>
+      </c>
+      <c r="R10">
+        <v>141.673511962906</v>
+      </c>
+      <c r="S10">
+        <v>0.03218609643455712</v>
+      </c>
+      <c r="T10">
+        <v>0.016579856760664</v>
       </c>
     </row>
   </sheetData>
